--- a/biology/Botanique/Tillandsia_angulosa/Tillandsia_angulosa.xlsx
+++ b/biology/Botanique/Tillandsia_angulosa/Tillandsia_angulosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia angulosa est une espèce de plantes de la famille des Bromeliaceae, endémique d'Argentine. Le rapport de l'épithète angulosa, signifiant « anguleuse », avec l'aspect du feuillage ou celui de l'inflorescence n'est pas bien clair.
 </t>
@@ -511,13 +523,15 @@
           <t>Protologue et type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Tillandsia angulosa Mez in C.DC., Monogr. Phan. 9: 868, n° 235 (1896)
-Diagnose originale[1]
+Diagnose originale
 « foliis caulem manifestum nunc quaquaverse nunc distiche vestientibus, usque ad 15 mm. longis, ex erecto optime arcuatim patentibus v. recurvis ; flore singulo, specie sessili revera brevissime stipitato, folia vix v. minute tantum superante ; sepalis antico cum reliquis ad 1 mm., posticis inter sese ad 3 mm. connatis. »
 Type
-leg. Hieronymus &amp; Niederlein, n° 851 ; "Argentinae prov. Catamarca, in valle de Tamatina"[1] ; Holotypus B (in herb. Hiern.) [ Planche en ligne ].</t>
+leg. Hieronymus &amp; Niederlein, n° 851 ; "Argentinae prov. Catamarca, in valle de Tamatina" ; Holotypus B (in herb. Hiern.) [ Planche en ligne ].</t>
         </is>
       </c>
     </row>
@@ -545,9 +559,11 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Tillandsia coarctata Gill. ex Baker × Tillandsia retorta Griseb. (simple hypothèse émise par Mez[1])</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Tillandsia coarctata Gill. ex Baker × Tillandsia retorta Griseb. (simple hypothèse émise par Mez)</t>
         </is>
       </c>
     </row>
@@ -575,9 +591,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia angulosa est une plante herbacée et épiphyte en rosette sur tige courte[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia angulosa est une plante herbacée et épiphyte en rosette sur tige courte,.
 </t>
         </is>
       </c>
@@ -608,8 +626,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Distribution
-L'espèce est endémique d'Argentine et se rencontre dans le centre et le nord[2], notamment dans la province de Catamarca[1].
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est endémique d'Argentine et se rencontre dans le centre et le nord, notamment dans la province de Catamarca.
 </t>
         </is>
       </c>
@@ -638,9 +661,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce épiphyte se rencontre souvent sur les cactées[1].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce épiphyte se rencontre souvent sur les cactées.
 </t>
         </is>
       </c>
@@ -669,9 +694,11 @@
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia angulosa se cultive facilement[2], sans substrat comme toutes les Tillandsia « aériennes ».
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia angulosa se cultive facilement, sans substrat comme toutes les Tillandsia « aériennes ».
 </t>
         </is>
       </c>
